--- a/min20-2022.05.16.xlsx
+++ b/min20-2022.05.16.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/walkermellon/Documents/cav/cancerAcrossVertebrates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/walkermellon/cancerAcrossVertebrates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5DA4BB80-BF6B-DA40-8225-454A947E715E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC0A390-FB83-B24C-89B4-0D644746317A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="3660" windowWidth="26840" windowHeight="15940" activeTab="1"/>
+    <workbookView xWindow="4460" yWindow="3660" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="min20516 copy" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="DataDict" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -3605,7 +3605,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4468,7 +4468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP328"/>
   <sheetViews>
     <sheetView topLeftCell="AE1" workbookViewId="0">
@@ -46458,10 +46458,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
